--- a/code/optimization_results.xlsx
+++ b/code/optimization_results.xlsx
@@ -11,8 +11,7 @@
     <sheet name="M2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="M3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="M4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="O" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Z" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Z" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -763,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -853,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -868,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -931,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
@@ -970,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
@@ -994,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1054,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1075,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1430,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1472,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1529,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1553,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>0</v>
@@ -2079,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -2220,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -2244,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
         <v>0</v>
@@ -2283,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2322,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR6" t="n">
         <v>0</v>
@@ -2360,22 +2359,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2384,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2396,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2405,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -2423,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -2462,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -2477,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -2522,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
         <v>0</v>
@@ -2549,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
@@ -2567,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
@@ -2651,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
@@ -2666,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
         <v>0</v>
       </c>
       <c r="DA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
@@ -2680,322 +2679,322 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8" t="n">
         <v>1</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV8" t="n">
         <v>1</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3338,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -3362,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -3395,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -3425,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -3721,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -3736,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -3763,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -3814,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -3838,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" t="n">
         <v>0</v>
@@ -3871,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
@@ -3886,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -4017,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -4044,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4059,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -4095,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4104,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
         <v>0</v>
@@ -4119,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
@@ -4146,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -4173,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
         <v>0</v>
@@ -4188,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
         <v>0</v>
@@ -4212,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH12" t="n">
         <v>0</v>
@@ -4236,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="CO12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
@@ -4260,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX12" t="n">
         <v>0</v>
@@ -5034,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
@@ -5085,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -5112,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -5139,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5175,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -5901,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -5970,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -6006,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -6036,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
@@ -6129,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="CF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG18" t="n">
         <v>0</v>
@@ -6144,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
         <v>0</v>
@@ -6332,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -6341,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -6458,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="CI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -6488,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="CS19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT19" t="n">
         <v>0</v>
@@ -6598,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -6607,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -6631,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -6658,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
@@ -6670,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
         <v>0</v>
@@ -6688,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="n">
         <v>0</v>
@@ -6715,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO20" t="n">
         <v>0</v>
@@ -6742,10 +6741,10 @@
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY20" t="n">
         <v>0</v>
@@ -6787,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM20" t="n">
         <v>0</v>
       </c>
       <c r="CN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO20" t="n">
         <v>0</v>
@@ -6823,13 +6822,13 @@
         <v>0</v>
       </c>
       <c r="CX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY20" t="n">
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA20" t="n">
         <v>0</v>
@@ -6918,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6933,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6945,19 +6944,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -7313,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -7337,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7403,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -7481,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
         <v>0</v>
@@ -7604,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -7980,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8022,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -8079,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -8103,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>0</v>
@@ -8590,7 +8589,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -8608,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -8629,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8695,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -8794,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
         <v>0</v>
@@ -8833,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -8872,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR6" t="n">
         <v>0</v>
@@ -8916,25 +8915,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -8946,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8955,13 +8954,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -8976,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -9012,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -9093,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
@@ -9117,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
@@ -9284,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -9293,13 +9292,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -9347,10 +9346,10 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -9392,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
         <v>0</v>
@@ -9419,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
@@ -9521,13 +9520,13 @@
         <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU8" t="n">
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -9536,13 +9535,13 @@
         <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
         <v>0</v>
       </c>
       <c r="DA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -9625,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -9930,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -9951,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -9966,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -9993,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -10044,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
@@ -10068,10 +10067,10 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" t="n">
         <v>0</v>
@@ -10101,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
         <v>0</v>
@@ -10116,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
@@ -10247,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -10274,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10289,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -10325,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -10334,10 +10333,10 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
         <v>0</v>
@@ -10349,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
@@ -10376,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
@@ -10403,10 +10402,10 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
@@ -10418,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
@@ -10442,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
         <v>0</v>
@@ -10466,16 +10465,16 @@
         <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -10490,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX11" t="n">
         <v>0</v>
@@ -10510,322 +10509,322 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -11330,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
@@ -11584,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
@@ -11635,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -11662,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -11689,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -11725,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -12218,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -12320,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
         <v>0</v>
@@ -12344,13 +12343,13 @@
         <v>0</v>
       </c>
       <c r="CA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
@@ -12425,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="DB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -12520,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -12556,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -12586,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
@@ -12679,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="CF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG18" t="n">
         <v>0</v>
@@ -12694,13 +12693,13 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
         <v>0</v>
@@ -12882,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -12891,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -13008,10 +13007,10 @@
         <v>0</v>
       </c>
       <c r="CI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -13038,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="CS19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT19" t="n">
         <v>0</v>
@@ -13148,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -13157,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -13181,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -13208,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
@@ -13220,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
         <v>0</v>
@@ -13238,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="n">
         <v>0</v>
@@ -13265,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO20" t="n">
         <v>0</v>
@@ -13292,10 +13291,10 @@
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY20" t="n">
         <v>0</v>
@@ -13337,13 +13336,13 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM20" t="n">
         <v>0</v>
       </c>
       <c r="CN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO20" t="n">
         <v>0</v>
@@ -13373,13 +13372,13 @@
         <v>0</v>
       </c>
       <c r="CX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY20" t="n">
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA20" t="n">
         <v>0</v>
@@ -13465,16 +13464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -13483,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -13492,22 +13491,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -13595,12 +13594,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -13641,130 +13640,6 @@
     <row r="21">
       <c r="A21" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
